--- a/境外美签监控.xlsx
+++ b/境外美签监控.xlsx
@@ -825,7 +825,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/境外美签监控.xlsx
+++ b/境外美签监控.xlsx
@@ -1,14 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$31</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
@@ -76,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="129">
   <si>
     <t>序号</t>
   </si>
@@ -328,34 +332,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2023.11.24-2024.04.30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.11.24-2024.04.30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.11.24-2024.04.30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.11.24-2024.04.30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.11.24-2024.04.30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.12.18-2024.05.30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.11.24-2024.05.31</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>阿联酋</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -384,10 +360,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2024.02.08-2024.07.30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>wuaivisa006@163.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -397,6 +369,215 @@
   </si>
   <si>
     <t>wuaivisa005@163.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bridgetown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴巴多斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toronto</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.24-2025.03.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.24-2025.07.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱尔兰本地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱尔兰非本地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuaivisa004@163.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuaivisa003@163.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dublin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱尔兰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xiaoxin123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>usavs003@outlook.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴西非本地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>usavs017@outlook.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>usavs018@outlook.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>usavs019@outlook.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xiaoxin1234</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xiaoxin1234</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xiaoxin1234</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>My5iucn123.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>usavs0001@outlook.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>usavs0002@outlook.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>usavs0003@outlook.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>usavs0004@outlook.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>usavs0005@outlook.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英国(新)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chenaiqiao1999</t>
+  </si>
+  <si>
+    <t>chen_aiqiao@hotmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.9.4-2024.9.30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.24-2027.04.30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.24-2026.12.31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.24-2025.03.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.12.10-2024.12.15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.12.10-2024.12.15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.12.10-2024.12.15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>usavs0002@outlook.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨西哥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ciudad Juarez</t>
+  </si>
+  <si>
+    <t>Guadalajara</t>
+  </si>
+  <si>
+    <t>Hermosillo</t>
+  </si>
+  <si>
+    <t>Matamoros</t>
+  </si>
+  <si>
+    <t>Merida</t>
+  </si>
+  <si>
+    <t>Mexico City</t>
+  </si>
+  <si>
+    <t>Monterrey</t>
+  </si>
+  <si>
+    <t>Nogales</t>
+  </si>
+  <si>
+    <t>Nuevo Laredo</t>
+  </si>
+  <si>
+    <t>Tijuana</t>
+  </si>
+  <si>
+    <t>usavs0006@outlook.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.24-2025.12.31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.24-2025.12.31</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -404,7 +585,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,8 +638,23 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,6 +664,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,19 +698,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -517,10 +724,48 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="4"/>
+    <cellStyle name="常规 3" xfId="5"/>
+    <cellStyle name="常规 4" xfId="2"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="超链接 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -822,23 +1067,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.75" customWidth="1"/>
+    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" customWidth="1"/>
     <col min="10" max="11" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.5" customWidth="1"/>
     <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24.95" customHeight="1">
+    <row r="1" spans="1:17" ht="24.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,7 +1102,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -866,41 +1113,41 @@
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="2">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="6">
+        <v>14</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="6">
         <v>2</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
         <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -910,764 +1157,1428 @@
         <v>42</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="2">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="11"/>
+    </row>
+    <row r="3" spans="1:17" ht="24.95" customHeight="1">
+      <c r="A3" s="6">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="6">
         <v>2</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
         <v>0</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="2">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="L3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" ht="24.95" customHeight="1">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6">
         <v>2</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
         <v>0</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="2">
+      <c r="L4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="F5" s="6">
         <v>2</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
         <v>0</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="L5" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="24.95" customHeight="1">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="6">
         <v>2</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11"/>
       <c r="K6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L6" t="s">
-        <v>64</v>
-      </c>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="L6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" ht="24.95" customHeight="1">
+      <c r="A7" s="6">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6">
         <v>2</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
         <v>0</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="2">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="L7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="6">
         <v>2</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
         <v>0</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L8" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="2">
+      <c r="L8" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="6">
         <v>2</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="6">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L9" t="s">
-        <v>78</v>
-      </c>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" t="s">
-        <v>64</v>
-      </c>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="2">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
+      <c r="L10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L11" t="s">
-        <v>69</v>
-      </c>
-      <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="2">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
+      <c r="L11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="J12" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L12" t="s">
-        <v>70</v>
-      </c>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="2">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
+      <c r="L12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="J13" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L13" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="2">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
+      <c r="L13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="J14" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L14" t="s">
-        <v>70</v>
-      </c>
-      <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
+      <c r="L14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L15" t="s">
-        <v>70</v>
-      </c>
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
+      <c r="L15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="11"/>
+    </row>
+    <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L16" t="s">
-        <v>70</v>
-      </c>
-      <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
+      <c r="L16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L17" t="s">
-        <v>70</v>
-      </c>
-      <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
+      <c r="L17" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="J18" s="2"/>
       <c r="K18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L18" t="s">
-        <v>70</v>
-      </c>
-      <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
+      <c r="L18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="11"/>
+    </row>
+    <row r="19" spans="1:17" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="J19" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L19" t="s">
-        <v>70</v>
-      </c>
-      <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
+      <c r="L19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q19" s="11"/>
+    </row>
+    <row r="20" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="J20" s="2"/>
       <c r="K20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L20" t="s">
-        <v>70</v>
-      </c>
-      <c r="M20" s="5"/>
-    </row>
-    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
+      <c r="L20" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="J21" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L21" t="s">
-        <v>70</v>
-      </c>
-      <c r="M21" s="5"/>
-    </row>
-    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="2">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
+      <c r="L21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="J22" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L22" t="s">
-        <v>70</v>
-      </c>
-      <c r="M22" s="5"/>
-    </row>
-    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1"/>
-    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1"/>
-    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="B26" t="s">
+      <c r="L22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="6">
+        <v>1</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="C23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+    </row>
+    <row r="24" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="6">
+        <v>11</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M24" s="4"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+    </row>
+    <row r="25" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="J25" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="K25" t="s">
+        <v>116</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="6">
+        <v>15</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>117</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="6">
+        <v>15</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>118</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="10"/>
+    </row>
+    <row r="28" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="6">
+        <v>16</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>119</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="6">
+        <v>17</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>120</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="6">
+        <v>18</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>121</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="10"/>
+    </row>
+    <row r="31" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="6">
+        <v>1</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>122</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="K32" t="s">
+        <v>123</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M32" s="4"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="11"/>
+    </row>
+    <row r="33" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="K33" t="s">
+        <v>124</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="K34" t="s">
+        <v>125</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="11"/>
+    </row>
+    <row r="35" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="6">
+        <v>11</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6">
+        <v>0</v>
+      </c>
+      <c r="I35" s="6">
+        <v>0</v>
+      </c>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="11"/>
+    </row>
+    <row r="36" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="6">
+        <v>12</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6">
+        <v>0</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0</v>
+      </c>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="11"/>
+    </row>
+    <row r="37" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="6">
+        <v>2</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1"/>
-    <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1"/>
-    <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1"/>
-    <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1"/>
-    <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1"/>
-    <row r="32" spans="1:13" ht="20.100000000000001" customHeight="1"/>
-    <row r="33" ht="20.100000000000001" customHeight="1"/>
-    <row r="34" ht="20.100000000000001" customHeight="1"/>
-    <row r="35" ht="20.100000000000001" customHeight="1"/>
-    <row r="36" ht="20.100000000000001" customHeight="1"/>
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6">
+        <v>0</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0</v>
+      </c>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="11"/>
+    </row>
+    <row r="38" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="6">
+        <v>10</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6">
+        <v>0</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="11"/>
+    </row>
+    <row r="39" spans="1:17" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="6">
+        <v>14</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6">
+        <v>0</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="11"/>
+    </row>
+    <row r="40" spans="1:17" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="6">
+        <v>15</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6">
+        <v>0</v>
+      </c>
+      <c r="I40" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="11"/>
+    </row>
+    <row r="41" spans="1:17" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="6">
+        <v>16</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0</v>
+      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="11"/>
+    </row>
+    <row r="42" spans="1:17" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="6">
+        <v>17</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="11"/>
+    </row>
+    <row r="43" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="6">
+        <v>18</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6">
+        <v>0</v>
+      </c>
+      <c r="I43" s="6">
+        <v>0</v>
+      </c>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="11"/>
+    </row>
+    <row r="44" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="6">
+        <v>19</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6">
+        <v>0</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0</v>
+      </c>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="11"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="6">
+        <v>20</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="6">
+        <v>0</v>
+      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6">
+        <v>0</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0</v>
+      </c>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="6">
+        <v>1</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6">
+        <v>0</v>
+      </c>
+      <c r="I46" s="6">
+        <v>0</v>
+      </c>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="6">
+        <v>9</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6">
+        <v>0</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="6">
+        <v>4</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6">
+        <v>0</v>
+      </c>
+      <c r="I48" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L31"/>
+  <sortState ref="Q18:Q39">
+    <sortCondition ref="Q17"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D48" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D23" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="D10" r:id="rId6"/>
+    <hyperlink ref="D27" r:id="rId7"/>
+    <hyperlink ref="D28" r:id="rId8"/>
+    <hyperlink ref="D29" r:id="rId9"/>
+    <hyperlink ref="D30" r:id="rId10"/>
+    <hyperlink ref="D26" r:id="rId11"/>
+    <hyperlink ref="D9" r:id="rId12"/>
+    <hyperlink ref="D2" r:id="rId13"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <legacyDrawing r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13">
+        <v>8</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="13">
+        <v>2</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="13">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="13">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D9" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D10" r:id="rId4"/>
-    <hyperlink ref="D26" r:id="rId5"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="D11" r:id="rId3"/>
+    <hyperlink ref="D7" r:id="rId4"/>
+    <hyperlink ref="D8" r:id="rId5"/>
+    <hyperlink ref="D10" r:id="rId6"/>
+    <hyperlink ref="D6" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
-  <legacyDrawing r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/境外美签监控.xlsx
+++ b/境外美签监控.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCE54D9-050D-4B44-B6BB-67139ABA542D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,16 +15,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$31</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="128">
   <si>
     <t>序号</t>
   </si>
@@ -377,10 +379,6 @@
   </si>
   <si>
     <t>巴巴多斯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Toronto</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -584,7 +582,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -710,15 +708,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -734,11 +732,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -748,24 +742,21 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="4"/>
-    <cellStyle name="常规 3" xfId="5"/>
-    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="常规 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="超链接 2" xfId="3"/>
+    <cellStyle name="超链接 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -781,9 +772,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -821,9 +812,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -858,7 +849,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -893,7 +884,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1066,11 +1057,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1126,16 +1117,16 @@
     </row>
     <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="6">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>126</v>
+      <c r="D2" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>7</v>
@@ -1157,27 +1148,26 @@
         <v>42</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M2" s="4"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="11"/>
+      <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" ht="24.95" customHeight="1">
       <c r="A3" s="6">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="F3" s="6">
         <v>2</v>
@@ -1194,25 +1184,25 @@
         <v>43</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1">
       <c r="A4" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="6">
         <v>2</v>
@@ -1229,7 +1219,7 @@
         <v>44</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M4" s="4"/>
     </row>
@@ -1238,13 +1228,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>8</v>
@@ -1264,24 +1254,24 @@
         <v>45</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="24.95" customHeight="1">
       <c r="A6" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>15</v>
+      <c r="D6" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="6">
         <v>2</v>
@@ -1293,30 +1283,30 @@
       <c r="I6" s="6">
         <v>0</v>
       </c>
-      <c r="J6" s="11"/>
+      <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:17" ht="24.95" customHeight="1">
       <c r="A7" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="6">
         <v>2</v>
@@ -1333,22 +1323,22 @@
         <v>47</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>8</v>
@@ -1368,24 +1358,24 @@
         <v>61</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>34</v>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="6">
         <v>2</v>
@@ -1397,29 +1387,31 @@
       <c r="I9" s="6">
         <v>0</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="K9" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="6">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="F10" s="6">
         <v>2</v>
@@ -1431,11 +1423,9 @@
       <c r="I10" s="6">
         <v>0</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>127</v>
@@ -1443,33 +1433,60 @@
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="J11" s="2"/>
+      <c r="A11" s="6">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="K11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="J12" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="J13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>110</v>
@@ -1477,102 +1494,100 @@
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="J14" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="J14" s="2"/>
       <c r="K14" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>111</v>
       </c>
       <c r="M15" s="4"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="11"/>
+      <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="J18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="K18" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="M18" s="4"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="11"/>
-    </row>
-    <row r="19" spans="1:17" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="J19" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="J19" s="2"/>
       <c r="K19" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q19" s="11"/>
+        <v>107</v>
+      </c>
+      <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="J20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="K20" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="J21" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="J22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="M22" s="4"/>
     </row>
@@ -1581,16 +1596,16 @@
         <v>1</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F23" s="6">
         <v>0</v>
@@ -1602,87 +1617,54 @@
       <c r="I23" s="6">
         <v>0</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>74</v>
+      <c r="J23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M23" s="4"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
     </row>
     <row r="24" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="6">
-        <v>11</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6">
-        <v>0</v>
-      </c>
-      <c r="I24" s="6">
-        <v>0</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>83</v>
+      <c r="J24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K24" t="s">
+        <v>115</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="M24" s="4"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
     </row>
     <row r="25" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="J25" s="18" t="s">
-        <v>115</v>
-      </c>
       <c r="K25" t="s">
         <v>116</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M25" s="4"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="10"/>
+      <c r="Q25" s="9"/>
     </row>
     <row r="26" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="6">
         <v>15</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F26" s="6">
         <v>0</v>
@@ -1698,27 +1680,26 @@
         <v>117</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M26" s="4"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="10"/>
+      <c r="Q26" s="9"/>
     </row>
     <row r="27" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="6">
         <v>15</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F27" s="6">
         <v>0</v>
@@ -1734,27 +1715,26 @@
         <v>118</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M27" s="4"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="10"/>
+      <c r="Q27" s="9"/>
     </row>
     <row r="28" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="6">
         <v>16</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F28" s="6">
         <v>0</v>
@@ -1770,27 +1750,26 @@
         <v>119</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M28" s="4"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="10"/>
+      <c r="Q28" s="9"/>
     </row>
     <row r="29" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="6">
         <v>17</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F29" s="6">
         <v>0</v>
@@ -1806,27 +1785,26 @@
         <v>120</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M29" s="4"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="10"/>
+      <c r="Q29" s="9"/>
     </row>
     <row r="30" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="6">
         <v>18</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F30" s="6">
         <v>0</v>
@@ -1842,11 +1820,10 @@
         <v>121</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M30" s="4"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="10"/>
+      <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="6">
@@ -1878,7 +1855,7 @@
         <v>122</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -1886,29 +1863,21 @@
         <v>123</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M32" s="4"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="K33" t="s">
         <v>124</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="K34" t="s">
-        <v>125</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="2"/>
     </row>
     <row r="35" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="6">
@@ -1936,8 +1905,7 @@
       <c r="I35" s="6">
         <v>0</v>
       </c>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="11"/>
+      <c r="Q35" s="2"/>
     </row>
     <row r="36" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="6">
@@ -1965,8 +1933,7 @@
       <c r="I36" s="6">
         <v>0</v>
       </c>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="11"/>
+      <c r="Q36" s="2"/>
     </row>
     <row r="37" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="6">
@@ -1994,8 +1961,7 @@
       <c r="I37" s="6">
         <v>0</v>
       </c>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="11"/>
+      <c r="Q37" s="2"/>
     </row>
     <row r="38" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="6">
@@ -2023,10 +1989,9 @@
       <c r="I38" s="6">
         <v>0</v>
       </c>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="11"/>
-    </row>
-    <row r="39" spans="1:17" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="6">
         <v>14</v>
       </c>
@@ -2052,9 +2017,9 @@
       <c r="I39" s="6">
         <v>0</v>
       </c>
-      <c r="Q39" s="11"/>
-    </row>
-    <row r="40" spans="1:17" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="Q39" s="2"/>
+    </row>
+    <row r="40" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="6">
         <v>15</v>
       </c>
@@ -2080,9 +2045,9 @@
       <c r="I40" s="6">
         <v>0</v>
       </c>
-      <c r="Q40" s="11"/>
-    </row>
-    <row r="41" spans="1:17" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="Q40" s="2"/>
+    </row>
+    <row r="41" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="6">
         <v>16</v>
       </c>
@@ -2108,9 +2073,9 @@
       <c r="I41" s="6">
         <v>0</v>
       </c>
-      <c r="Q41" s="11"/>
-    </row>
-    <row r="42" spans="1:17" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="Q41" s="2"/>
+    </row>
+    <row r="42" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="6">
         <v>17</v>
       </c>
@@ -2136,7 +2101,7 @@
       <c r="I42" s="6">
         <v>0</v>
       </c>
-      <c r="Q42" s="11"/>
+      <c r="Q42" s="2"/>
     </row>
     <row r="43" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="6">
@@ -2164,8 +2129,7 @@
       <c r="I43" s="6">
         <v>0</v>
       </c>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="11"/>
+      <c r="Q43" s="2"/>
     </row>
     <row r="44" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="6">
@@ -2193,8 +2157,7 @@
       <c r="I44" s="6">
         <v>0</v>
       </c>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="11"/>
+      <c r="Q44" s="2"/>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="6">
@@ -2222,8 +2185,6 @@
       <c r="I45" s="6">
         <v>0</v>
       </c>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="6">
@@ -2251,8 +2212,6 @@
       <c r="I46" s="6">
         <v>0</v>
       </c>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="6">
@@ -2289,7 +2248,7 @@
         <v>16</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>71</v>
@@ -2309,25 +2268,25 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L31"/>
-  <sortState ref="Q18:Q39">
+  <autoFilter ref="A1:L31" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q18:Q39">
     <sortCondition ref="Q17"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D48" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D23" r:id="rId4"/>
-    <hyperlink ref="D4" r:id="rId5"/>
-    <hyperlink ref="D10" r:id="rId6"/>
-    <hyperlink ref="D27" r:id="rId7"/>
-    <hyperlink ref="D28" r:id="rId8"/>
-    <hyperlink ref="D29" r:id="rId9"/>
-    <hyperlink ref="D30" r:id="rId10"/>
-    <hyperlink ref="D26" r:id="rId11"/>
-    <hyperlink ref="D9" r:id="rId12"/>
-    <hyperlink ref="D2" r:id="rId13"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D48" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D23" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D27" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D28" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D29" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D30" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D26" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D10" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D11" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
@@ -2336,7 +2295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2360,14 +2319,14 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>87</v>
+      <c r="B2" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>86</v>
+      <c r="D2" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>8</v>
@@ -2383,200 +2342,178 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-    </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="13">
+      <c r="A6" s="11">
         <v>8</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="11">
+        <v>2</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="13">
-        <v>2</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="13">
+      <c r="A7" s="11">
         <v>1</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="14" t="s">
+      <c r="C7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="11">
+        <v>1</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="13">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="13">
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="11">
         <v>1</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="C11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="13">
-        <v>0</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="13">
-        <v>8</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="13">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13">
-        <v>0</v>
-      </c>
-      <c r="I10" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="13">
-        <v>1</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13">
-        <v>0</v>
-      </c>
-      <c r="I11" s="13">
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="D11" r:id="rId3"/>
-    <hyperlink ref="D7" r:id="rId4"/>
-    <hyperlink ref="D8" r:id="rId5"/>
-    <hyperlink ref="D10" r:id="rId6"/>
-    <hyperlink ref="D6" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D11" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D10" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D6" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>

--- a/境外美签监控.xlsx
+++ b/境外美签监控.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCE54D9-050D-4B44-B6BB-67139ABA542D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,17 +14,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$31</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="118">
   <si>
     <t>序号</t>
   </si>
@@ -103,10 +101,6 @@
     <t>是否预约</t>
   </si>
   <si>
-    <t>wuaivisa015@163.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Xiaoxin123</t>
   </si>
   <si>
@@ -182,38 +176,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>wuaivisa016@163.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wuaivisa017@163.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wuaivisa018@163.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wuaivisa019@163.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wuaivisa020@163.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wuaivisa021@163.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wuaivisa022@163.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wuaivisa023@163.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>wuaivisa009@163.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -382,6 +344,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Toronto</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>2023.11.24-2025.03.03</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -394,10 +360,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>爱尔兰非本地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>wuaivisa004@163.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -414,10 +376,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Xiaoxin123</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>usavs003@outlook.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -474,10 +432,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>英国(新)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>chenaiqiao1999</t>
   </si>
   <si>
@@ -501,18 +455,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>英国</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2023.11.24-2027.04.30</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2023.11.24-2026.12.31</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2023.11.24-2025.03.03</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -576,13 +522,25 @@
   </si>
   <si>
     <t>2023.11.24-2025.12.31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.01.17-2025.04.30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.01.17-2025.12.30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱尔兰</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -708,15 +666,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -732,7 +690,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -742,21 +704,24 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 2" xfId="4"/>
+    <cellStyle name="常规 3" xfId="5"/>
+    <cellStyle name="常规 4" xfId="2"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="超链接 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="超链接 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -772,9 +737,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -812,9 +777,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -849,7 +814,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -884,7 +849,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1057,11 +1022,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1081,19 +1046,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -1105,13 +1070,13 @@
         <v>5</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M1" s="4"/>
     </row>
@@ -1120,16 +1085,16 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="6">
         <v>2</v>
@@ -1142,32 +1107,33 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M2" s="4"/>
-      <c r="Q2" s="2"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="24.95" customHeight="1">
       <c r="A3" s="6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>94</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="F3" s="6">
         <v>2</v>
@@ -1181,25 +1147,25 @@
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1">
       <c r="A4" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>7</v>
@@ -1216,28 +1182,28 @@
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>80</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" s="6">
         <v>2</v>
@@ -1251,205 +1217,89 @@
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A6" s="6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="6">
-        <v>2</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:17" ht="24.95" customHeight="1">
-      <c r="A7" s="6">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="6">
-        <v>2</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="6">
-        <v>3</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="6">
-        <v>2</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="6">
-        <v>5</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="6">
-        <v>2</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="J9" s="9"/>
       <c r="K9" s="2" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="6">
-        <v>7</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="6">
-        <v>2</v>
-      </c>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="K10" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="6">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>125</v>
+        <v>10</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6">
@@ -1458,154 +1308,429 @@
       <c r="I11" s="6">
         <v>0</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="J11" s="2"/>
       <c r="K11" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="6">
+        <v>14</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
       <c r="J12" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="6">
+        <v>15</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
       <c r="J13" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="J14" s="2"/>
+      <c r="A14" s="6">
+        <v>15</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="K14" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="6">
+        <v>16</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="M15" s="4"/>
-      <c r="Q15" s="2"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="11"/>
     </row>
     <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="6">
+        <v>17</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="6">
+        <v>18</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L17" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="6">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="11"/>
+    </row>
+    <row r="19" spans="1:17" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="6">
+        <v>4</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q19" s="11"/>
+    </row>
+    <row r="20" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="6">
+        <v>14</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="J18" s="2" t="s">
+      <c r="E20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="6">
+        <v>6</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="6">
+        <v>1</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M18" s="4"/>
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="J19" s="2"/>
-      <c r="K19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="J20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="J21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="E22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
       <c r="J22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>74</v>
+        <v>57</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>81</v>
+        <v>10</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="F23" s="6">
         <v>0</v>
@@ -1617,54 +1742,112 @@
       <c r="I23" s="6">
         <v>0</v>
       </c>
-      <c r="J23" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>82</v>
+      <c r="J23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="M23" s="4"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
     </row>
     <row r="24" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="J24" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K24" t="s">
-        <v>115</v>
+      <c r="A24" s="6">
+        <v>3</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="M24" s="4"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
     </row>
     <row r="25" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="6">
+        <v>5</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>101</v>
+      </c>
       <c r="K25" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="M25" s="4"/>
-      <c r="Q25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="10"/>
     </row>
     <row r="26" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="6">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="F26" s="6">
         <v>0</v>
@@ -1677,29 +1860,30 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="M26" s="4"/>
-      <c r="Q26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="10"/>
     </row>
     <row r="27" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="6">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="F27" s="6">
         <v>0</v>
@@ -1712,29 +1896,30 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="M27" s="4"/>
-      <c r="Q27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="10"/>
     </row>
     <row r="28" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="6">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="F28" s="6">
         <v>0</v>
@@ -1747,546 +1932,205 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="L28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="K29" t="s">
+        <v>106</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="K30" t="s">
         <v>107</v>
       </c>
-      <c r="M28" s="4"/>
-      <c r="Q28" s="9"/>
-    </row>
-    <row r="29" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="6">
-        <v>17</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="6">
-        <v>0</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6">
-        <v>0</v>
-      </c>
-      <c r="I29" s="6">
-        <v>0</v>
-      </c>
-      <c r="K29" t="s">
-        <v>120</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M29" s="4"/>
-      <c r="Q29" s="9"/>
-    </row>
-    <row r="30" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="6">
-        <v>18</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="6">
-        <v>0</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6">
-        <v>0</v>
-      </c>
-      <c r="I30" s="6">
-        <v>0</v>
-      </c>
-      <c r="K30" t="s">
-        <v>121</v>
-      </c>
       <c r="L30" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="M30" s="4"/>
-      <c r="Q30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="10"/>
     </row>
     <row r="31" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="6">
-        <v>1</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="6">
-        <v>0</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6">
-        <v>0</v>
-      </c>
-      <c r="I31" s="6">
-        <v>0</v>
-      </c>
       <c r="K31" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="K32" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="M32" s="4"/>
-      <c r="Q32" s="2"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="11"/>
     </row>
     <row r="33" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="K33" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="Q34" s="2"/>
-    </row>
-    <row r="35" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="6">
-        <v>11</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="6">
-        <v>0</v>
-      </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6">
-        <v>0</v>
-      </c>
-      <c r="I35" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="2"/>
-    </row>
-    <row r="36" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="6">
-        <v>12</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="6">
-        <v>0</v>
-      </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6">
-        <v>0</v>
-      </c>
-      <c r="I36" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="2"/>
-    </row>
-    <row r="37" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="6">
-        <v>2</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="6">
-        <v>0</v>
-      </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6">
-        <v>0</v>
-      </c>
-      <c r="I37" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="2"/>
-    </row>
-    <row r="38" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="6">
-        <v>10</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="6">
-        <v>0</v>
-      </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6">
-        <v>0</v>
-      </c>
-      <c r="I38" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="2"/>
-    </row>
-    <row r="39" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="6">
-        <v>14</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="6">
-        <v>0</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6">
-        <v>0</v>
-      </c>
-      <c r="I39" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="2"/>
-    </row>
-    <row r="40" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="6">
-        <v>15</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="6">
-        <v>0</v>
-      </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6">
-        <v>0</v>
-      </c>
-      <c r="I40" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="2"/>
-    </row>
-    <row r="41" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="6">
-        <v>16</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="6">
-        <v>0</v>
-      </c>
+      <c r="K34" t="s">
+        <v>111</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="11"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="6">
-        <v>0</v>
-      </c>
-      <c r="I41" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="2"/>
-    </row>
-    <row r="42" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="6">
-        <v>17</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="6">
-        <v>0</v>
-      </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6">
-        <v>0</v>
-      </c>
-      <c r="I42" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="2"/>
-    </row>
-    <row r="43" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="6">
-        <v>18</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="6">
-        <v>0</v>
-      </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6">
-        <v>0</v>
-      </c>
-      <c r="I43" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="2"/>
-    </row>
-    <row r="44" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="6">
-        <v>19</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="6">
-        <v>0</v>
-      </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6">
-        <v>0</v>
-      </c>
-      <c r="I44" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="2"/>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="6">
-        <v>20</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="6">
-        <v>0</v>
-      </c>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6">
-        <v>0</v>
-      </c>
-      <c r="I45" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="6">
-        <v>1</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="6">
-        <v>0</v>
-      </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6">
-        <v>0</v>
-      </c>
-      <c r="I46" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="6">
-        <v>9</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="6">
-        <v>0</v>
-      </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6">
-        <v>0</v>
-      </c>
-      <c r="I47" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="6">
-        <v>4</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="6">
-        <v>0</v>
-      </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6">
-        <v>0</v>
-      </c>
-      <c r="I48" s="6">
-        <v>0</v>
-      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="54" spans="1:17" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="Q54" s="11"/>
+    </row>
+    <row r="55" spans="1:17" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="Q55" s="11"/>
+    </row>
+    <row r="56" spans="1:17" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="Q56" s="11"/>
+    </row>
+    <row r="57" spans="1:17" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="Q57" s="11"/>
+    </row>
+    <row r="58" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="11"/>
+    </row>
+    <row r="59" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="11"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L31" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q18:Q39">
+  <autoFilter ref="A1:L31"/>
+  <sortState ref="Q18:Q39">
     <sortCondition ref="Q17"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D48" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D23" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D27" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D28" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D29" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D30" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D26" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D10" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D11" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D21" r:id="rId1"/>
+    <hyperlink ref="D19" r:id="rId2"/>
+    <hyperlink ref="D22" r:id="rId3"/>
+    <hyperlink ref="D14" r:id="rId4"/>
+    <hyperlink ref="D15" r:id="rId5"/>
+    <hyperlink ref="D16" r:id="rId6"/>
+    <hyperlink ref="D17" r:id="rId7"/>
+    <hyperlink ref="D13" r:id="rId8"/>
+    <hyperlink ref="D26" r:id="rId9"/>
+    <hyperlink ref="D20" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D27" r:id="rId12"/>
+    <hyperlink ref="D28" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
@@ -2295,7 +2139,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2319,17 +2163,17 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>85</v>
+        <v>10</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="6">
         <v>1</v>
@@ -2342,178 +2186,200 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="11">
+      <c r="A6" s="13">
         <v>8</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="B6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="13">
         <v>2</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="H6" s="14"/>
+      <c r="G6" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="16"/>
       <c r="I6" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="11">
+      <c r="A7" s="13">
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="B7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="13">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="11">
+      <c r="B9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13">
         <v>1</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="B11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="11">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="11">
-        <v>1</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D11" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D7" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D8" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="D10" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="D6" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="D11" r:id="rId3"/>
+    <hyperlink ref="D7" r:id="rId4"/>
+    <hyperlink ref="D8" r:id="rId5"/>
+    <hyperlink ref="D10" r:id="rId6"/>
+    <hyperlink ref="D6" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
